--- a/target/test-classes/PracticeFormTestCases.xlsx
+++ b/target/test-classes/PracticeFormTestCases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28417"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD96D066-A9D8-4CF2-B3CD-7AE97455CFA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7905F05C-A98E-4D2C-999D-FBA10F003D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="433">
   <si>
     <t>First Name</t>
   </si>
@@ -276,25 +276,1060 @@
     <t>Jessica</t>
   </si>
   <si>
+    <t>Grace</t>
+  </si>
+  <si>
+    <t>jessica.grace@email.com</t>
+  </si>
+  <si>
+    <t>9876543216</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>542 Oak Rd</t>
+  </si>
+  <si>
+    <t>Evan</t>
+  </si>
+  <si>
+    <t>Moses</t>
+  </si>
+  <si>
+    <t>evan.moses@email.com</t>
+  </si>
+  <si>
+    <t>9543287616</t>
+  </si>
+  <si>
+    <t>Amia</t>
+  </si>
+  <si>
     <t>Red</t>
   </si>
   <si>
-    <t>jessica.red@email.com</t>
-  </si>
-  <si>
-    <t>9876543216</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>542 Oak Rd</t>
+    <t>amia.red@email.com</t>
   </si>
   <si>
     <t>12345</t>
   </si>
   <si>
     <t>543 Oak Rd</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>max.black@email.com</t>
+  </si>
+  <si>
+    <t>12345678911</t>
+  </si>
+  <si>
+    <t>987 Maple Ave</t>
+  </si>
+  <si>
+    <t>Noida</t>
+  </si>
+  <si>
+    <t>aarav.sharma@email</t>
+  </si>
+  <si>
+    <t>123, Sector 12, Dwarka</t>
+  </si>
+  <si>
+    <t>Shweta</t>
+  </si>
+  <si>
+    <t>Singh</t>
+  </si>
+  <si>
+    <t>shweta.singh.com</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>45, Main Road, Jaiselmer</t>
+  </si>
+  <si>
+    <t>Rajasthan</t>
+  </si>
+  <si>
+    <t>Jaiselmer</t>
+  </si>
+  <si>
+    <t>Rina</t>
+  </si>
+  <si>
+    <t>Patel</t>
+  </si>
+  <si>
+    <t>rina.patel@email.com</t>
+  </si>
+  <si>
+    <t>Social Studies</t>
+  </si>
+  <si>
+    <t>101, Akbar Road, New Delhi - 110011</t>
+  </si>
+  <si>
+    <t>Vikas</t>
+  </si>
+  <si>
+    <t>Yadav</t>
+  </si>
+  <si>
+    <t>vikas.yadav@email.com</t>
+  </si>
+  <si>
+    <t>9123456789</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>33, Golf Course Road, Gurgaon - 122002</t>
+  </si>
+  <si>
+    <t>Gurgaon</t>
+  </si>
+  <si>
+    <t>Kiran</t>
+  </si>
+  <si>
+    <t>kiran.singh@email.com</t>
+  </si>
+  <si>
+    <t>8765432109</t>
+  </si>
+  <si>
+    <t>Maths</t>
+  </si>
+  <si>
+    <t>10, Sector 50, Noida - 201307</t>
+  </si>
+  <si>
+    <t>Sanjay</t>
+  </si>
+  <si>
+    <t>Joshi</t>
+  </si>
+  <si>
+    <t>sanjay.joshi@email.com</t>
+  </si>
+  <si>
+    <t>9876123456</t>
+  </si>
+  <si>
+    <t>Hindi</t>
+  </si>
+  <si>
+    <t>18, Fatehabad Road, Agra - 282001</t>
+  </si>
+  <si>
+    <t>Mitali</t>
+  </si>
+  <si>
+    <t>mitali.rao@email.com</t>
+  </si>
+  <si>
+    <t>9081726354</t>
+  </si>
+  <si>
+    <t>25, Hazratganj, Lucknow - 226001</t>
+  </si>
+  <si>
+    <t>Monika</t>
+  </si>
+  <si>
+    <t>Verma</t>
+  </si>
+  <si>
+    <t>monika.verma@email.com</t>
+  </si>
+  <si>
+    <t>9298765432</t>
+  </si>
+  <si>
+    <t>22, Arya Nagar, Meerut - 250002</t>
+  </si>
+  <si>
+    <t>Merrut</t>
+  </si>
+  <si>
+    <t>Dhruv</t>
+  </si>
+  <si>
+    <t>Kapoor</t>
+  </si>
+  <si>
+    <t>dhruv.kapoor@email.com</t>
+  </si>
+  <si>
+    <t>8998765431</t>
+  </si>
+  <si>
+    <t>Economics</t>
+  </si>
+  <si>
+    <t>45, Model Town, Karnal - 132001</t>
+  </si>
+  <si>
+    <t>Rajni</t>
+  </si>
+  <si>
+    <t>rajni.sharma@email.com</t>
+  </si>
+  <si>
+    <t>9123476985</t>
+  </si>
+  <si>
+    <t>12, Model Town, Panipat - 132103</t>
+  </si>
+  <si>
+    <t>Sanjeev</t>
+  </si>
+  <si>
+    <t>Tiwari</t>
+  </si>
+  <si>
+    <t>sanjeev.tiwari@email.com</t>
+  </si>
+  <si>
+    <t>9898761203</t>
+  </si>
+  <si>
+    <t>Computer Science</t>
+  </si>
+  <si>
+    <t>56, Vaishali Nagar, Jaipur - 302021</t>
+  </si>
+  <si>
+    <t>Jaipur</t>
+  </si>
+  <si>
+    <t>Karan</t>
+  </si>
+  <si>
+    <t>Mishra</t>
+  </si>
+  <si>
+    <t>karan.mishra@email.com</t>
+  </si>
+  <si>
+    <t>9234765810</t>
+  </si>
+  <si>
+    <t>Commerce</t>
+  </si>
+  <si>
+    <t>33, Jaisalmer Fort, Jaisalmer - 345001</t>
+  </si>
+  <si>
+    <t>Sushil</t>
+  </si>
+  <si>
+    <t>sushil.yadav@email.com</t>
+  </si>
+  <si>
+    <t>9008761234</t>
+  </si>
+  <si>
+    <t>Civics</t>
+  </si>
+  <si>
+    <t>45, Block C, Vasant Kunj, New Delhi - 110070</t>
+  </si>
+  <si>
+    <t>Megha</t>
+  </si>
+  <si>
+    <t>megha.kapoor@email.com</t>
+  </si>
+  <si>
+    <t>9578234670</t>
+  </si>
+  <si>
+    <t>11, Sector 40, Gurgaon - 122001</t>
+  </si>
+  <si>
+    <t>Aman</t>
+  </si>
+  <si>
+    <t>Mehra</t>
+  </si>
+  <si>
+    <t>aman.mehra@email.com</t>
+  </si>
+  <si>
+    <t>9791123445</t>
+  </si>
+  <si>
+    <t>Accounting</t>
+  </si>
+  <si>
+    <t>15, Sector 62, Noida - 201309</t>
+  </si>
+  <si>
+    <t>Arjun</t>
+  </si>
+  <si>
+    <t>Deshmukh</t>
+  </si>
+  <si>
+    <t>arjun.deshmukh@email.com</t>
+  </si>
+  <si>
+    <t>9301568274</t>
+  </si>
+  <si>
+    <t>Arts</t>
+  </si>
+  <si>
+    <t>56, Fatehabad Road, Agra - 282001</t>
+  </si>
+  <si>
+    <t>Vikash</t>
+  </si>
+  <si>
+    <t>Bhatia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vikash.bhatia@email.com	</t>
+  </si>
+  <si>
+    <t>9654321098</t>
+  </si>
+  <si>
+    <t>Social Studies, Physics</t>
+  </si>
+  <si>
+    <t>88, Sector 56, Noida - 201301</t>
+  </si>
+  <si>
+    <t>Meera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meera.mehra@email.com	</t>
+  </si>
+  <si>
+    <t>9812765430</t>
+  </si>
+  <si>
+    <t>Social Studies, Physics, Maths</t>
+  </si>
+  <si>
+    <t>22, Tajganj, Agra - 282001</t>
+  </si>
+  <si>
+    <t>Mehul</t>
+  </si>
+  <si>
+    <t>mehul.yadav@email.com</t>
+  </si>
+  <si>
+    <t>9034762581</t>
+  </si>
+  <si>
+    <t>Social Studies, Physics, Maths, Hindi</t>
+  </si>
+  <si>
+    <t>45, Gomti Nagar, Lucknow - 226010</t>
+  </si>
+  <si>
+    <t>Sheetal</t>
+  </si>
+  <si>
+    <t>Gupta</t>
+  </si>
+  <si>
+    <t>sheetal.gupta@email.com</t>
+  </si>
+  <si>
+    <t>9675213890</t>
+  </si>
+  <si>
+    <t>Social Studies, Physics, Maths, Hindi, History</t>
+  </si>
+  <si>
+    <t>Ankit</t>
+  </si>
+  <si>
+    <t>Jain</t>
+  </si>
+  <si>
+    <t>ankit.jain@email.com</t>
+  </si>
+  <si>
+    <t>9988776655</t>
+  </si>
+  <si>
+    <t>Social Studies, Physics, Maths, Hindi, History, English</t>
+  </si>
+  <si>
+    <t>33, Sector 12, Karnal - 132001</t>
+  </si>
+  <si>
+    <t>Shivani</t>
+  </si>
+  <si>
+    <t>shivani.mishra@email.com</t>
+  </si>
+  <si>
+    <t>9654728390</t>
+  </si>
+  <si>
+    <t>Social Studies, Physics, Maths, Hindi, History, English, Chemistry</t>
+  </si>
+  <si>
+    <t>34, Civil Lines, Panipat - 132103</t>
+  </si>
+  <si>
+    <t>Gaurav</t>
+  </si>
+  <si>
+    <t>Chawla</t>
+  </si>
+  <si>
+    <t>gaurav.chawla@email.com</t>
+  </si>
+  <si>
+    <t>9348765210</t>
+  </si>
+  <si>
+    <t>Social Studies, Physics, Maths, Hindi, History, English, Chemistry, Computer Science</t>
+  </si>
+  <si>
+    <t>45, C-Scheme, Jaipur - 302001</t>
+  </si>
+  <si>
+    <t>Tanvi</t>
+  </si>
+  <si>
+    <t>tanvi.kapoor@email.com</t>
+  </si>
+  <si>
+    <t>9516234870</t>
+  </si>
+  <si>
+    <t>Social Studies, Physics, Maths, Hindi, History, English, Chemistry, Computer Science, Commerce</t>
+  </si>
+  <si>
+    <t>34, Vyas Colony, Jaisalmer - 345001</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Reed</t>
+  </si>
+  <si>
+    <t>jack.reed@email.com</t>
+  </si>
+  <si>
+    <t>9201837456</t>
+  </si>
+  <si>
+    <t>Social Studies, Physics, Maths, Hindi, History, English, Chemistry, Computer Science, Commerce, Civics</t>
+  </si>
+  <si>
+    <t>78, Hauz Khas Village, New Delhi - 110016</t>
+  </si>
+  <si>
+    <t>Liam</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>liam.king@outlook.com</t>
+  </si>
+  <si>
+    <t>9793645201</t>
+  </si>
+  <si>
+    <t>Social Studies, Physics, Maths, Hindi, History, English, Chemistry, Computer Science, Commerce, Civics, Biology</t>
+  </si>
+  <si>
+    <t>37, Sector 15, Gurgaon - 122001</t>
+  </si>
+  <si>
+    <t>Olivia</t>
+  </si>
+  <si>
+    <t>Evans</t>
+  </si>
+  <si>
+    <t>olivia.evans@gmail.com</t>
+  </si>
+  <si>
+    <t>9224763895</t>
+  </si>
+  <si>
+    <t>Social Studies, Physics, Maths, Hindi, History, English, Chemistry, Computer Science, Commerce, Civics, Biology, Accounting</t>
+  </si>
+  <si>
+    <t>34, Sector 37, Noida - 201303</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>james.scott@aol.com</t>
+  </si>
+  <si>
+    <t>9576312908</t>
+  </si>
+  <si>
+    <t>Social Studies, Physics, Maths, Hindi, History, English, Chemistry, Computer Science, Commerce, Civics, Biology, Accounting, Arts</t>
+  </si>
+  <si>
+    <t>45, Sanjay Place, Agra - 282002</t>
+  </si>
+  <si>
+    <t>Lucy</t>
+  </si>
+  <si>
+    <t>Bennett</t>
+  </si>
+  <si>
+    <t>lucy.bennett@gmail.com</t>
+  </si>
+  <si>
+    <t>9832547106</t>
+  </si>
+  <si>
+    <t>12, Connaught Place, New Delhi - 110001</t>
+  </si>
+  <si>
+    <t>Noah</t>
+  </si>
+  <si>
+    <t>Harris</t>
+  </si>
+  <si>
+    <t>noah.harris@outlook.com</t>
+  </si>
+  <si>
+    <t>9716254938</t>
+  </si>
+  <si>
+    <t>10, MG Road, Gurgaon - 122002</t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>samuel.lee@gmail.com</t>
+  </si>
+  <si>
+    <t>9564872130</t>
+  </si>
+  <si>
+    <t>49, Sector 71, Noida - 201307</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>lucas.brown@yahoo.com</t>
+  </si>
+  <si>
+    <t>9156724380</t>
+  </si>
+  <si>
+    <t>33, Sadar Bazar, Agra - 282001</t>
+  </si>
+  <si>
+    <t>Maya</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>maya.young@outlook.com</t>
+  </si>
+  <si>
+    <t>9427536190</t>
+  </si>
+  <si>
+    <t>22, Indira Nagar, Lucknow - 226016</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>Gray</t>
+  </si>
+  <si>
+    <t>henry.gray@gmail.com</t>
+  </si>
+  <si>
+    <t>9371928645</t>
+  </si>
+  <si>
+    <t>11, Shastri Nagar, Meerut - 250004</t>
+  </si>
+  <si>
+    <t>Murphy</t>
+  </si>
+  <si>
+    <t>olivia.murphy@yahoo.com</t>
+  </si>
+  <si>
+    <t>9032145786</t>
+  </si>
+  <si>
+    <t>22, Gopal Nagar, Karnal - 132001</t>
+  </si>
+  <si>
+    <t>Benjamin</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>benjamin.johnson@outlook.com</t>
+  </si>
+  <si>
+    <t>9208137465</t>
+  </si>
+  <si>
+    <t>22, Jattal Road, Panipat - 132103</t>
+  </si>
+  <si>
+    <t>Amelia</t>
+  </si>
+  <si>
+    <t>Watson</t>
+  </si>
+  <si>
+    <t>amelia.watson@gmail.com</t>
+  </si>
+  <si>
+    <t>9678345120</t>
+  </si>
+  <si>
+    <t>56, Malviya Nagar, Jaipur - 302017</t>
+  </si>
+  <si>
+    <t>Clark</t>
+  </si>
+  <si>
+    <t>noah.clark@aol.com</t>
+  </si>
+  <si>
+    <t>9845617032</t>
+  </si>
+  <si>
+    <t>22, Jaisalmer Fort, Jaisalmer - 345001</t>
+  </si>
+  <si>
+    <t>Rajeev</t>
+  </si>
+  <si>
+    <t>Soni</t>
+  </si>
+  <si>
+    <t>rajeev.soni@email.com</t>
+  </si>
+  <si>
+    <t>9210348576</t>
+  </si>
+  <si>
+    <t>12, Hazratganj, Lucknow - 226001</t>
+  </si>
+  <si>
+    <t>Sonal</t>
+  </si>
+  <si>
+    <t>sonal.verma@email.com</t>
+  </si>
+  <si>
+    <t>9671234850</t>
+  </si>
+  <si>
+    <t>15, Sadar Bazar, Meerut - 250001</t>
+  </si>
+  <si>
+    <t>Tanya</t>
+  </si>
+  <si>
+    <t>tanya.joshi@email.com</t>
+  </si>
+  <si>
+    <t>9845623107</t>
+  </si>
+  <si>
+    <t>12, Model Town, Karnal - 132001</t>
+  </si>
+  <si>
+    <t>Ramesh</t>
+  </si>
+  <si>
+    <t>ramesh.patel@email.com</t>
+  </si>
+  <si>
+    <t>9126378459</t>
+  </si>
+  <si>
+    <t>Hitesh</t>
+  </si>
+  <si>
+    <t>hitesh.chawla@email.com</t>
+  </si>
+  <si>
+    <t>8761029345</t>
+  </si>
+  <si>
+    <t>Sports, Reading</t>
+  </si>
+  <si>
+    <t>12, Vaishali Nagar, Jaipur - 302021</t>
+  </si>
+  <si>
+    <t>rina.gupta@email.com</t>
+  </si>
+  <si>
+    <t>9076543219</t>
+  </si>
+  <si>
+    <t>Music, Reading</t>
+  </si>
+  <si>
+    <t>12, Fort Road, Jaisalmer - 345001</t>
+  </si>
+  <si>
+    <t>Radhika</t>
+  </si>
+  <si>
+    <t>radhika.kapoor@email.com</t>
+  </si>
+  <si>
+    <t>9234567890</t>
+  </si>
+  <si>
+    <t>Sports, Music, Reading</t>
+  </si>
+  <si>
+    <t>21, Sohna Road, Gurgaon - 122018</t>
+  </si>
+  <si>
+    <t>clara.walker@outlook.com</t>
+  </si>
+  <si>
+    <t>9841526379</t>
+  </si>
+  <si>
+    <t>78, Alambagh, Lucknow - 226005</t>
+  </si>
+  <si>
+    <t>9187362950</t>
+  </si>
+  <si>
+    <t>33, Garh Road, Meerut - 250001</t>
+  </si>
+  <si>
+    <t>9218046537</t>
+  </si>
+  <si>
+    <t>45, Arya Nagar, Karnal - 132001</t>
+  </si>
+  <si>
+    <t>56, Sector 13, Panipat - 132103</t>
+  </si>
+  <si>
+    <t>33, Mansarovar, Jaipur - 302020</t>
+  </si>
+  <si>
+    <t>56, Gandhi Nagar, Jaisalmer - 345001</t>
+  </si>
+  <si>
+    <t>22, Saket District Centre, New Delhi - 110017</t>
+  </si>
+  <si>
+    <t>75, DLF Phase 2, Gurgaon - 122002</t>
+  </si>
+  <si>
+    <t>Isaac</t>
+  </si>
+  <si>
+    <t>isaac.gray@outlook.com</t>
+  </si>
+  <si>
+    <t>9716523840</t>
+  </si>
+  <si>
+    <t>25, Mangal Pandey Nagar, Meerut - 250003</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>Miller</t>
+  </si>
+  <si>
+    <t>charlotte.miller@yahoo.com</t>
+  </si>
+  <si>
+    <t>9452637180</t>
+  </si>
+  <si>
+    <t>Owen</t>
+  </si>
+  <si>
+    <t>owen.harris@gmail.com</t>
+  </si>
+  <si>
+    <t>9241065789</t>
+  </si>
+  <si>
+    <t>Mia</t>
+  </si>
+  <si>
+    <t>Turner</t>
+  </si>
+  <si>
+    <t>mia.turner@outlook.com</t>
+  </si>
+  <si>
+    <t>9573024891</t>
+  </si>
+  <si>
+    <t>benjamin.bennett@yahoo.com</t>
+  </si>
+  <si>
+    <t>9364785123</t>
+  </si>
+  <si>
+    <t>Rivera</t>
+  </si>
+  <si>
+    <t>mia.rivera@gmail.com</t>
+  </si>
+  <si>
+    <t>9024763518</t>
+  </si>
+  <si>
+    <t>samuel.young@outlook.com</t>
+  </si>
+  <si>
+    <t>Sophie</t>
+  </si>
+  <si>
+    <t>Bailey</t>
+  </si>
+  <si>
+    <t>sophie.bailey@yahoo.com</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>a.t@yahoo.com</t>
+  </si>
+  <si>
+    <t>9321987460</t>
+  </si>
+  <si>
+    <t>44, Partapur, Meerut - 250103</t>
+  </si>
+  <si>
+    <t>Antidisestablishmentarianism</t>
+  </si>
+  <si>
+    <t>Cooper</t>
+  </si>
+  <si>
+    <t>antidisestablishmentarianism.cooper@gmail.com</t>
+  </si>
+  <si>
+    <t>9158426703</t>
+  </si>
+  <si>
+    <t>17, Sadar Bazar, Karnal - 132001</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t>Pneumonoultramicroscopicsilicovolcanoconiosis</t>
+  </si>
+  <si>
+    <t>joseph.Pneumonoultramicroscopicsilicovolcanoconiosis@outlook.com</t>
+  </si>
+  <si>
+    <t>9032741586</t>
+  </si>
+  <si>
+    <t>60, Gohana Road, Panipat - 132103</t>
+  </si>
+  <si>
+    <t>Anne-Marie</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>annemarie.martin@yahoo.com</t>
+  </si>
+  <si>
+    <t>9608321475</t>
+  </si>
+  <si>
+    <t>22, Bani Park, Jaipur - 302016</t>
+  </si>
+  <si>
+    <t>Jean-Luc</t>
+  </si>
+  <si>
+    <t>D'Angelo</t>
+  </si>
+  <si>
+    <t>jeanluc.dangelo@aol.com</t>
+  </si>
+  <si>
+    <t>9847312506</t>
+  </si>
+  <si>
+    <t>19, Sam Road, Jaisalmer - 345001</t>
+  </si>
+  <si>
+    <t>José</t>
+  </si>
+  <si>
+    <t>García</t>
+  </si>
+  <si>
+    <t>jose.garcia@gmail.com</t>
+  </si>
+  <si>
+    <t>9072456318</t>
+  </si>
+  <si>
+    <t>23, Green Park Extension, New Delhi - 110016</t>
+  </si>
+  <si>
+    <t>Benjamin123</t>
+  </si>
+  <si>
+    <t>Hayes1</t>
+  </si>
+  <si>
+    <t>benjamin.hayes@yahoo.com</t>
+  </si>
+  <si>
+    <t>9517432860</t>
+  </si>
+  <si>
+    <t>90, Sector 29, Gurgaon - 122018</t>
+  </si>
+  <si>
+    <t>ELLA</t>
+  </si>
+  <si>
+    <t>YOUNG</t>
+  </si>
+  <si>
+    <t>ella.young@outlook.com</t>
+  </si>
+  <si>
+    <t>9374185962</t>
+  </si>
+  <si>
+    <t>68, Sector 28, Noida - 201301</t>
+  </si>
+  <si>
+    <t>LuCAs</t>
+  </si>
+  <si>
+    <t>TuRnER</t>
+  </si>
+  <si>
+    <t>lucas.turner@gmail.com</t>
+  </si>
+  <si>
+    <t>9125364780</t>
+  </si>
+  <si>
+    <t>50, Kamla Nagar, Agra - 282005</t>
+  </si>
+  <si>
+    <t>zoe.bennett@aol.com</t>
+  </si>
+  <si>
+    <t>9062387415</t>
+  </si>
+  <si>
+    <t>18, Rajajipuram, Lucknow - 226017</t>
+  </si>
+  <si>
+    <t>@abriel</t>
+  </si>
+  <si>
+    <t>gabriel.king@yahoo.com</t>
+  </si>
+  <si>
+    <t>9893051764</t>
+  </si>
+  <si>
+    <t>60, Rohta Road, Meerut - 250001</t>
+  </si>
+  <si>
+    <t>Clara</t>
+  </si>
+  <si>
+    <t>#$%^&amp;*</t>
+  </si>
+  <si>
+    <t>clara.white@gmail.com</t>
+  </si>
+  <si>
+    <t>9671438205</t>
+  </si>
+  <si>
+    <t>10, Old Karnal, Karnal - 132001</t>
+  </si>
+  <si>
+    <t>first.last@outlook.com</t>
+  </si>
+  <si>
+    <t>9012376458</t>
+  </si>
+  <si>
+    <t>11, Huda Market, Panipat - 132103</t>
+  </si>
+  <si>
+    <t>&lt;script&gt;alert('Test')&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src='test.jpg'&gt;</t>
+  </si>
+  <si>
+    <t>isabella.hall@gmail.com</t>
+  </si>
+  <si>
+    <t>9176805243</t>
+  </si>
+  <si>
+    <t>50, JLN Marg, Jaipur - 302004</t>
   </si>
 </sst>
 </file>
@@ -352,7 +1387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -368,6 +1403,14 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -703,25 +1746,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M15"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1232,22 +2275,22 @@
     </row>
     <row r="14" spans="1:13" ht="60.75">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F14" s="10">
-        <v>35837</v>
+        <v>41316</v>
       </c>
       <c r="G14" t="s">
         <v>84</v>
@@ -1270,19 +2313,19 @@
     </row>
     <row r="15" spans="1:13" ht="60.75">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F15" s="10">
         <v>35838</v>
@@ -1297,7 +2340,7 @@
         <v>20</v>
       </c>
       <c r="J15" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K15" t="s">
         <v>22</v>
@@ -1307,6 +2350,2949 @@
       </c>
       <c r="M15" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="60.75">
+      <c r="A16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="10">
+        <v>29585</v>
+      </c>
+      <c r="G16" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" t="s">
+        <v>100</v>
+      </c>
+      <c r="M16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="60.75">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="10">
+        <v>32874</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" t="s">
+        <v>102</v>
+      </c>
+      <c r="K17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="60.75">
+      <c r="A18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="10">
+        <v>35117</v>
+      </c>
+      <c r="G18" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" t="s">
+        <v>107</v>
+      </c>
+      <c r="K18" t="s">
+        <v>108</v>
+      </c>
+      <c r="L18" t="s">
+        <v>109</v>
+      </c>
+      <c r="M18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="60.75">
+      <c r="A19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="10">
+        <v>32874</v>
+      </c>
+      <c r="G19" t="s">
+        <v>113</v>
+      </c>
+      <c r="H19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" t="s">
+        <v>114</v>
+      </c>
+      <c r="K19" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="60.75">
+      <c r="A20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" s="10">
+        <v>31080</v>
+      </c>
+      <c r="G20" t="s">
+        <v>106</v>
+      </c>
+      <c r="H20" t="s">
+        <v>119</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" t="s">
+        <v>120</v>
+      </c>
+      <c r="K20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" t="s">
+        <v>121</v>
+      </c>
+      <c r="M20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="60.75">
+      <c r="A21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" s="10">
+        <v>33666</v>
+      </c>
+      <c r="G21" t="s">
+        <v>125</v>
+      </c>
+      <c r="H21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" t="s">
+        <v>126</v>
+      </c>
+      <c r="K21" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" t="s">
+        <v>100</v>
+      </c>
+      <c r="M21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="60.75">
+      <c r="A22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" s="10">
+        <v>32237</v>
+      </c>
+      <c r="G22" t="s">
+        <v>131</v>
+      </c>
+      <c r="H22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" t="s">
+        <v>132</v>
+      </c>
+      <c r="K22" t="s">
+        <v>43</v>
+      </c>
+      <c r="L22" t="s">
+        <v>44</v>
+      </c>
+      <c r="M22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="60.75">
+      <c r="A23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="10">
+        <v>34824</v>
+      </c>
+      <c r="G23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" t="s">
+        <v>119</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" t="s">
+        <v>136</v>
+      </c>
+      <c r="K23" t="s">
+        <v>43</v>
+      </c>
+      <c r="L23" t="s">
+        <v>59</v>
+      </c>
+      <c r="M23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="60.75">
+      <c r="A24" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24" s="10">
+        <v>31934</v>
+      </c>
+      <c r="G24" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" t="s">
+        <v>141</v>
+      </c>
+      <c r="K24" t="s">
+        <v>43</v>
+      </c>
+      <c r="L24" t="s">
+        <v>142</v>
+      </c>
+      <c r="M24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="60.75">
+      <c r="A25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="F25" s="10">
+        <v>33426</v>
+      </c>
+      <c r="G25" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" t="s">
+        <v>51</v>
+      </c>
+      <c r="L25" t="s">
+        <v>65</v>
+      </c>
+      <c r="M25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="60.75">
+      <c r="A26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="10">
+        <v>30902</v>
+      </c>
+      <c r="G26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" t="s">
+        <v>119</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" t="s">
+        <v>152</v>
+      </c>
+      <c r="K26" t="s">
+        <v>51</v>
+      </c>
+      <c r="L26" t="s">
+        <v>52</v>
+      </c>
+      <c r="M26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="60.75">
+      <c r="A27" t="s">
+        <v>153</v>
+      </c>
+      <c r="B27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="F27" s="10">
+        <v>34221</v>
+      </c>
+      <c r="G27" t="s">
+        <v>157</v>
+      </c>
+      <c r="H27" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" t="s">
+        <v>158</v>
+      </c>
+      <c r="K27" t="s">
+        <v>108</v>
+      </c>
+      <c r="L27" t="s">
+        <v>159</v>
+      </c>
+      <c r="M27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="60.75">
+      <c r="A28" t="s">
+        <v>160</v>
+      </c>
+      <c r="B28" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F28" s="10">
+        <v>33156</v>
+      </c>
+      <c r="G28" t="s">
+        <v>164</v>
+      </c>
+      <c r="H28" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" t="s">
+        <v>165</v>
+      </c>
+      <c r="K28" t="s">
+        <v>108</v>
+      </c>
+      <c r="L28" t="s">
+        <v>109</v>
+      </c>
+      <c r="M28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="60.75">
+      <c r="A29" t="s">
+        <v>166</v>
+      </c>
+      <c r="B29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F29" s="10">
+        <v>30266</v>
+      </c>
+      <c r="G29" t="s">
+        <v>169</v>
+      </c>
+      <c r="H29" t="s">
+        <v>119</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" t="s">
+        <v>170</v>
+      </c>
+      <c r="K29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" t="s">
+        <v>23</v>
+      </c>
+      <c r="M29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="60.75">
+      <c r="A30" t="s">
+        <v>171</v>
+      </c>
+      <c r="B30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="F30" s="10">
+        <v>34680</v>
+      </c>
+      <c r="G30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" t="s">
+        <v>174</v>
+      </c>
+      <c r="K30" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30" t="s">
+        <v>121</v>
+      </c>
+      <c r="M30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="60.75">
+      <c r="A31" t="s">
+        <v>175</v>
+      </c>
+      <c r="B31" t="s">
+        <v>176</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="F31" s="10">
+        <v>29233</v>
+      </c>
+      <c r="G31" t="s">
+        <v>179</v>
+      </c>
+      <c r="H31" t="s">
+        <v>41</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" t="s">
+        <v>180</v>
+      </c>
+      <c r="K31" t="s">
+        <v>22</v>
+      </c>
+      <c r="L31" t="s">
+        <v>100</v>
+      </c>
+      <c r="M31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="60.75">
+      <c r="A32" t="s">
+        <v>181</v>
+      </c>
+      <c r="B32" t="s">
+        <v>182</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="F32" s="10">
+        <v>32553</v>
+      </c>
+      <c r="G32" t="s">
+        <v>185</v>
+      </c>
+      <c r="H32" t="s">
+        <v>119</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" t="s">
+        <v>186</v>
+      </c>
+      <c r="K32" t="s">
+        <v>43</v>
+      </c>
+      <c r="L32" t="s">
+        <v>44</v>
+      </c>
+      <c r="M32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="60.75">
+      <c r="A33" t="s">
+        <v>187</v>
+      </c>
+      <c r="B33" t="s">
+        <v>188</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="F33" s="10">
+        <v>33533</v>
+      </c>
+      <c r="G33" t="s">
+        <v>191</v>
+      </c>
+      <c r="H33" t="s">
+        <v>119</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" t="s">
+        <v>192</v>
+      </c>
+      <c r="K33" t="s">
+        <v>22</v>
+      </c>
+      <c r="L33" t="s">
+        <v>100</v>
+      </c>
+      <c r="M33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="60.75">
+      <c r="A34" t="s">
+        <v>193</v>
+      </c>
+      <c r="B34" t="s">
+        <v>176</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F34" s="10">
+        <v>35026</v>
+      </c>
+      <c r="G34" t="s">
+        <v>196</v>
+      </c>
+      <c r="H34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" t="s">
+        <v>197</v>
+      </c>
+      <c r="K34" t="s">
+        <v>43</v>
+      </c>
+      <c r="L34" t="s">
+        <v>44</v>
+      </c>
+      <c r="M34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="60.75">
+      <c r="A35" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="F35" s="10">
+        <v>29579</v>
+      </c>
+      <c r="G35" t="s">
+        <v>201</v>
+      </c>
+      <c r="H35" t="s">
+        <v>41</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" t="s">
+        <v>202</v>
+      </c>
+      <c r="K35" t="s">
+        <v>43</v>
+      </c>
+      <c r="L35" t="s">
+        <v>59</v>
+      </c>
+      <c r="M35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="60.75">
+      <c r="A36" t="s">
+        <v>203</v>
+      </c>
+      <c r="B36" t="s">
+        <v>204</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="F36" s="10">
+        <v>32167</v>
+      </c>
+      <c r="G36" t="s">
+        <v>207</v>
+      </c>
+      <c r="H36" t="s">
+        <v>119</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" t="s">
+        <v>141</v>
+      </c>
+      <c r="K36" t="s">
+        <v>43</v>
+      </c>
+      <c r="L36" t="s">
+        <v>142</v>
+      </c>
+      <c r="M36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="60.75">
+      <c r="A37" t="s">
+        <v>208</v>
+      </c>
+      <c r="B37" t="s">
+        <v>209</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D37" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="F37" s="10">
+        <v>30008</v>
+      </c>
+      <c r="G37" t="s">
+        <v>212</v>
+      </c>
+      <c r="H37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" t="s">
+        <v>213</v>
+      </c>
+      <c r="K37" t="s">
+        <v>51</v>
+      </c>
+      <c r="L37" t="s">
+        <v>65</v>
+      </c>
+      <c r="M37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="60.75">
+      <c r="A38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B38" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="F38" s="10">
+        <v>34420</v>
+      </c>
+      <c r="G38" t="s">
+        <v>217</v>
+      </c>
+      <c r="H38" t="s">
+        <v>41</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" t="s">
+        <v>218</v>
+      </c>
+      <c r="K38" t="s">
+        <v>51</v>
+      </c>
+      <c r="L38" t="s">
+        <v>52</v>
+      </c>
+      <c r="M38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="60.75">
+      <c r="A39" t="s">
+        <v>219</v>
+      </c>
+      <c r="B39" t="s">
+        <v>220</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="F39" s="10">
+        <v>32991</v>
+      </c>
+      <c r="G39" t="s">
+        <v>223</v>
+      </c>
+      <c r="H39" t="s">
+        <v>119</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" t="s">
+        <v>224</v>
+      </c>
+      <c r="K39" t="s">
+        <v>108</v>
+      </c>
+      <c r="L39" t="s">
+        <v>159</v>
+      </c>
+      <c r="M39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="60.75">
+      <c r="A40" t="s">
+        <v>225</v>
+      </c>
+      <c r="B40" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="F40" s="10">
+        <v>34118</v>
+      </c>
+      <c r="G40" t="s">
+        <v>228</v>
+      </c>
+      <c r="H40" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" t="s">
+        <v>229</v>
+      </c>
+      <c r="K40" t="s">
+        <v>108</v>
+      </c>
+      <c r="L40" t="s">
+        <v>109</v>
+      </c>
+      <c r="M40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="60.75">
+      <c r="A41" t="s">
+        <v>230</v>
+      </c>
+      <c r="B41" t="s">
+        <v>231</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D41" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="F41" s="10">
+        <v>35246</v>
+      </c>
+      <c r="G41" t="s">
+        <v>234</v>
+      </c>
+      <c r="H41" t="s">
+        <v>41</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" t="s">
+        <v>235</v>
+      </c>
+      <c r="K41" t="s">
+        <v>22</v>
+      </c>
+      <c r="L41" t="s">
+        <v>23</v>
+      </c>
+      <c r="M41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="60.75">
+      <c r="A42" t="s">
+        <v>236</v>
+      </c>
+      <c r="B42" t="s">
+        <v>237</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="F42" s="10">
+        <v>30894</v>
+      </c>
+      <c r="G42" t="s">
+        <v>240</v>
+      </c>
+      <c r="H42" t="s">
+        <v>119</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" t="s">
+        <v>241</v>
+      </c>
+      <c r="K42" t="s">
+        <v>22</v>
+      </c>
+      <c r="L42" t="s">
+        <v>121</v>
+      </c>
+      <c r="M42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="60.75">
+      <c r="A43" t="s">
+        <v>242</v>
+      </c>
+      <c r="B43" t="s">
+        <v>243</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="F43" s="10">
+        <v>33086</v>
+      </c>
+      <c r="G43" t="s">
+        <v>246</v>
+      </c>
+      <c r="H43" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" t="s">
+        <v>247</v>
+      </c>
+      <c r="K43" t="s">
+        <v>22</v>
+      </c>
+      <c r="L43" t="s">
+        <v>100</v>
+      </c>
+      <c r="M43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="60.75">
+      <c r="A44" t="s">
+        <v>248</v>
+      </c>
+      <c r="B44" t="s">
+        <v>249</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D44" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="F44" s="10">
+        <v>31292</v>
+      </c>
+      <c r="G44" t="s">
+        <v>252</v>
+      </c>
+      <c r="H44" t="s">
+        <v>41</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" t="s">
+        <v>253</v>
+      </c>
+      <c r="K44" t="s">
+        <v>43</v>
+      </c>
+      <c r="L44" t="s">
+        <v>44</v>
+      </c>
+      <c r="M44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="60.75">
+      <c r="A45" t="s">
+        <v>254</v>
+      </c>
+      <c r="B45" t="s">
+        <v>255</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="F45" s="10">
+        <v>34433</v>
+      </c>
+      <c r="G45" t="s">
+        <v>179</v>
+      </c>
+      <c r="H45" t="s">
+        <v>119</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" t="s">
+        <v>258</v>
+      </c>
+      <c r="K45" t="s">
+        <v>22</v>
+      </c>
+      <c r="L45" t="s">
+        <v>23</v>
+      </c>
+      <c r="M45" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="60.75">
+      <c r="A46" t="s">
+        <v>259</v>
+      </c>
+      <c r="B46" t="s">
+        <v>260</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D46" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="F46" s="10">
+        <v>33368</v>
+      </c>
+      <c r="G46" t="s">
+        <v>185</v>
+      </c>
+      <c r="H46" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" t="s">
+        <v>263</v>
+      </c>
+      <c r="K46" t="s">
+        <v>22</v>
+      </c>
+      <c r="L46" t="s">
+        <v>121</v>
+      </c>
+      <c r="M46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="60.75">
+      <c r="A47" t="s">
+        <v>264</v>
+      </c>
+      <c r="B47" t="s">
+        <v>265</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D47" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="F47" s="10">
+        <v>31939</v>
+      </c>
+      <c r="G47" t="s">
+        <v>113</v>
+      </c>
+      <c r="H47" t="s">
+        <v>41</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="K47" t="s">
+        <v>22</v>
+      </c>
+      <c r="L47" t="s">
+        <v>100</v>
+      </c>
+      <c r="M47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="60.75">
+      <c r="A48" t="s">
+        <v>269</v>
+      </c>
+      <c r="B48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D48" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="F48" s="10">
+        <v>33066</v>
+      </c>
+      <c r="G48" t="s">
+        <v>106</v>
+      </c>
+      <c r="H48" t="s">
+        <v>119</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48" t="s">
+        <v>272</v>
+      </c>
+      <c r="K48" t="s">
+        <v>43</v>
+      </c>
+      <c r="L48" t="s">
+        <v>44</v>
+      </c>
+      <c r="M48" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="60.75">
+      <c r="A49" t="s">
+        <v>273</v>
+      </c>
+      <c r="B49" t="s">
+        <v>274</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D49" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="F49" s="10">
+        <v>30907</v>
+      </c>
+      <c r="G49" t="s">
+        <v>125</v>
+      </c>
+      <c r="H49" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49" t="s">
+        <v>277</v>
+      </c>
+      <c r="K49" t="s">
+        <v>43</v>
+      </c>
+      <c r="L49" t="s">
+        <v>59</v>
+      </c>
+      <c r="M49" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="60.75">
+      <c r="A50" t="s">
+        <v>278</v>
+      </c>
+      <c r="B50" t="s">
+        <v>279</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="F50" s="10">
+        <v>33861</v>
+      </c>
+      <c r="G50" t="s">
+        <v>131</v>
+      </c>
+      <c r="H50" t="s">
+        <v>41</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J50" t="s">
+        <v>282</v>
+      </c>
+      <c r="K50" t="s">
+        <v>43</v>
+      </c>
+      <c r="L50" t="s">
+        <v>142</v>
+      </c>
+      <c r="M50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="60.75">
+      <c r="A51" t="s">
+        <v>242</v>
+      </c>
+      <c r="B51" t="s">
+        <v>283</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="F51" s="10">
+        <v>33526</v>
+      </c>
+      <c r="G51" t="s">
+        <v>74</v>
+      </c>
+      <c r="H51" t="s">
+        <v>119</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J51" t="s">
+        <v>286</v>
+      </c>
+      <c r="K51" t="s">
+        <v>51</v>
+      </c>
+      <c r="L51" t="s">
+        <v>65</v>
+      </c>
+      <c r="M51" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="60.75">
+      <c r="A52" t="s">
+        <v>287</v>
+      </c>
+      <c r="B52" t="s">
+        <v>288</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="F52" s="10">
+        <v>32828</v>
+      </c>
+      <c r="G52" t="s">
+        <v>84</v>
+      </c>
+      <c r="H52" t="s">
+        <v>19</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J52" t="s">
+        <v>291</v>
+      </c>
+      <c r="K52" t="s">
+        <v>51</v>
+      </c>
+      <c r="L52" t="s">
+        <v>52</v>
+      </c>
+      <c r="M52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="60.75">
+      <c r="A53" t="s">
+        <v>292</v>
+      </c>
+      <c r="B53" t="s">
+        <v>293</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D53" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="F53" s="10">
+        <v>34320</v>
+      </c>
+      <c r="G53" t="s">
+        <v>147</v>
+      </c>
+      <c r="H53" t="s">
+        <v>41</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J53" t="s">
+        <v>296</v>
+      </c>
+      <c r="K53" t="s">
+        <v>108</v>
+      </c>
+      <c r="L53" t="s">
+        <v>159</v>
+      </c>
+      <c r="M53" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="60.75">
+      <c r="A54" t="s">
+        <v>259</v>
+      </c>
+      <c r="B54" t="s">
+        <v>297</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="F54" s="10">
+        <v>29238</v>
+      </c>
+      <c r="G54" t="s">
+        <v>40</v>
+      </c>
+      <c r="H54" t="s">
+        <v>119</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J54" t="s">
+        <v>300</v>
+      </c>
+      <c r="K54" t="s">
+        <v>108</v>
+      </c>
+      <c r="L54" t="s">
+        <v>109</v>
+      </c>
+      <c r="M54" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="60.75">
+      <c r="A55" t="s">
+        <v>301</v>
+      </c>
+      <c r="B55" t="s">
+        <v>302</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D55" t="s">
+        <v>27</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="F55" s="10">
+        <v>35139</v>
+      </c>
+      <c r="G55" t="s">
+        <v>113</v>
+      </c>
+      <c r="H55" t="s">
+        <v>19</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J55" t="s">
+        <v>305</v>
+      </c>
+      <c r="K55" t="s">
+        <v>43</v>
+      </c>
+      <c r="L55" t="s">
+        <v>59</v>
+      </c>
+      <c r="M55" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="60.75">
+      <c r="A56" t="s">
+        <v>306</v>
+      </c>
+      <c r="B56" t="s">
+        <v>138</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="F56" s="10">
+        <v>31883</v>
+      </c>
+      <c r="G56" t="s">
+        <v>106</v>
+      </c>
+      <c r="H56" t="s">
+        <v>41</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J56" t="s">
+        <v>309</v>
+      </c>
+      <c r="K56" t="s">
+        <v>43</v>
+      </c>
+      <c r="L56" t="s">
+        <v>142</v>
+      </c>
+      <c r="M56" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="60.75">
+      <c r="A57" t="s">
+        <v>310</v>
+      </c>
+      <c r="B57" t="s">
+        <v>128</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D57" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="F57" s="10">
+        <v>33741</v>
+      </c>
+      <c r="G57" t="s">
+        <v>125</v>
+      </c>
+      <c r="H57" t="s">
+        <v>119</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J57" t="s">
+        <v>313</v>
+      </c>
+      <c r="K57" t="s">
+        <v>51</v>
+      </c>
+      <c r="L57" t="s">
+        <v>65</v>
+      </c>
+      <c r="M57" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="60.75">
+      <c r="A58" t="s">
+        <v>314</v>
+      </c>
+      <c r="B58" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D58" t="s">
+        <v>27</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="F58" s="10">
+        <v>31581</v>
+      </c>
+      <c r="G58" t="s">
+        <v>131</v>
+      </c>
+      <c r="H58" t="s">
+        <v>49</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J58" t="s">
+        <v>152</v>
+      </c>
+      <c r="K58" t="s">
+        <v>51</v>
+      </c>
+      <c r="L58" t="s">
+        <v>52</v>
+      </c>
+      <c r="M58" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="60.75">
+      <c r="A59" t="s">
+        <v>317</v>
+      </c>
+      <c r="B59" t="s">
+        <v>220</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="D59" t="s">
+        <v>27</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="F59" s="10">
+        <v>33073</v>
+      </c>
+      <c r="G59" t="s">
+        <v>74</v>
+      </c>
+      <c r="H59" t="s">
+        <v>320</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J59" t="s">
+        <v>321</v>
+      </c>
+      <c r="K59" t="s">
+        <v>108</v>
+      </c>
+      <c r="L59" t="s">
+        <v>159</v>
+      </c>
+      <c r="M59" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="60.75">
+      <c r="A60" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60" t="s">
+        <v>204</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D60" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="F60" s="10">
+        <v>30914</v>
+      </c>
+      <c r="G60" t="s">
+        <v>84</v>
+      </c>
+      <c r="H60" t="s">
+        <v>324</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J60" t="s">
+        <v>325</v>
+      </c>
+      <c r="K60" t="s">
+        <v>108</v>
+      </c>
+      <c r="L60" t="s">
+        <v>109</v>
+      </c>
+      <c r="M60" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="60.75">
+      <c r="A61" t="s">
+        <v>326</v>
+      </c>
+      <c r="B61" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D61" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="F61" s="10">
+        <v>30580</v>
+      </c>
+      <c r="G61" t="s">
+        <v>40</v>
+      </c>
+      <c r="H61" t="s">
+        <v>329</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J61" t="s">
+        <v>330</v>
+      </c>
+      <c r="K61" t="s">
+        <v>22</v>
+      </c>
+      <c r="L61" t="s">
+        <v>121</v>
+      </c>
+      <c r="M61" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="60.75">
+      <c r="C62" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D62" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="F62" s="10">
+        <v>34245</v>
+      </c>
+      <c r="G62" t="s">
+        <v>147</v>
+      </c>
+      <c r="H62" t="s">
+        <v>119</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J62" t="s">
+        <v>333</v>
+      </c>
+      <c r="K62" t="s">
+        <v>43</v>
+      </c>
+      <c r="L62" t="s">
+        <v>59</v>
+      </c>
+      <c r="M62" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="60.75">
+      <c r="C63" s="5"/>
+      <c r="D63" t="s">
+        <v>27</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="F63" s="10">
+        <v>33912</v>
+      </c>
+      <c r="G63" t="s">
+        <v>40</v>
+      </c>
+      <c r="H63" t="s">
+        <v>19</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J63" t="s">
+        <v>335</v>
+      </c>
+      <c r="K63" t="s">
+        <v>43</v>
+      </c>
+      <c r="L63" t="s">
+        <v>142</v>
+      </c>
+      <c r="M63" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="60.75">
+      <c r="C64" s="5"/>
+      <c r="E64" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="F64" s="10">
+        <v>31751</v>
+      </c>
+      <c r="G64" t="s">
+        <v>157</v>
+      </c>
+      <c r="H64" t="s">
+        <v>41</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J64" t="s">
+        <v>337</v>
+      </c>
+      <c r="K64" t="s">
+        <v>51</v>
+      </c>
+      <c r="L64" t="s">
+        <v>65</v>
+      </c>
+      <c r="M64" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="60.75">
+      <c r="C65" s="5"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="10">
+        <v>32148</v>
+      </c>
+      <c r="G65" t="s">
+        <v>164</v>
+      </c>
+      <c r="H65" t="s">
+        <v>119</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J65" t="s">
+        <v>338</v>
+      </c>
+      <c r="K65" t="s">
+        <v>51</v>
+      </c>
+      <c r="L65" t="s">
+        <v>52</v>
+      </c>
+      <c r="M65" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="60.75">
+      <c r="C66" s="5"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="10"/>
+      <c r="G66" t="s">
+        <v>169</v>
+      </c>
+      <c r="H66" t="s">
+        <v>19</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J66" t="s">
+        <v>339</v>
+      </c>
+      <c r="K66" t="s">
+        <v>108</v>
+      </c>
+      <c r="L66" t="s">
+        <v>159</v>
+      </c>
+      <c r="M66" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="60.75">
+      <c r="C67" s="13"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="10"/>
+      <c r="H67" t="s">
+        <v>41</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J67" t="s">
+        <v>340</v>
+      </c>
+      <c r="K67" t="s">
+        <v>108</v>
+      </c>
+      <c r="L67" t="s">
+        <v>109</v>
+      </c>
+      <c r="M67" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="60.75">
+      <c r="C68" s="5"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="10"/>
+      <c r="I68" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J68" t="s">
+        <v>341</v>
+      </c>
+      <c r="K68" t="s">
+        <v>22</v>
+      </c>
+      <c r="L68" t="s">
+        <v>23</v>
+      </c>
+      <c r="M68" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="C69" s="5"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="10"/>
+      <c r="I69" s="8"/>
+      <c r="J69" t="s">
+        <v>342</v>
+      </c>
+      <c r="K69" t="s">
+        <v>22</v>
+      </c>
+      <c r="L69" t="s">
+        <v>121</v>
+      </c>
+      <c r="M69" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="C70" s="5"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="10"/>
+      <c r="I70" s="8"/>
+      <c r="K70" t="s">
+        <v>22</v>
+      </c>
+      <c r="L70" t="s">
+        <v>100</v>
+      </c>
+      <c r="M70" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="C71" s="5"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="10"/>
+      <c r="I71" s="8"/>
+      <c r="L71" t="s">
+        <v>44</v>
+      </c>
+      <c r="M71" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="C72" s="5"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="10"/>
+      <c r="I72" s="8"/>
+      <c r="M72" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="60.75">
+      <c r="A73" t="s">
+        <v>343</v>
+      </c>
+      <c r="B73" t="s">
+        <v>279</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="D73" t="s">
+        <v>27</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="F73" s="10">
+        <v>30521</v>
+      </c>
+      <c r="G73" t="s">
+        <v>185</v>
+      </c>
+      <c r="H73" t="s">
+        <v>119</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J73" t="s">
+        <v>346</v>
+      </c>
+      <c r="M73" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="60.75">
+      <c r="A74" t="s">
+        <v>347</v>
+      </c>
+      <c r="B74" t="s">
+        <v>348</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="D74" t="s">
+        <v>16</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="F74" s="10">
+        <v>33841</v>
+      </c>
+      <c r="G74" t="s">
+        <v>113</v>
+      </c>
+      <c r="H74" t="s">
+        <v>19</v>
+      </c>
+      <c r="I74" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M74" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" t="s">
+        <v>351</v>
+      </c>
+      <c r="B75" t="s">
+        <v>260</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="D75" t="s">
+        <v>27</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="F75" s="10">
+        <v>32777</v>
+      </c>
+      <c r="G75" t="s">
+        <v>106</v>
+      </c>
+      <c r="H75" t="s">
+        <v>41</v>
+      </c>
+      <c r="I75" s="8"/>
+      <c r="M75" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" t="s">
+        <v>354</v>
+      </c>
+      <c r="B76" t="s">
+        <v>355</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="D76" t="s">
+        <v>16</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="F76" s="10">
+        <v>31712</v>
+      </c>
+      <c r="G76" t="s">
+        <v>125</v>
+      </c>
+      <c r="I76" s="8"/>
+      <c r="M76" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" t="s">
+        <v>287</v>
+      </c>
+      <c r="B77" t="s">
+        <v>255</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D77" t="s">
+        <v>27</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="F77" s="10">
+        <v>33205</v>
+      </c>
+      <c r="I77" s="8"/>
+      <c r="M77" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" t="s">
+        <v>354</v>
+      </c>
+      <c r="B78" t="s">
+        <v>360</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="D78" t="s">
+        <v>16</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="F78" s="10"/>
+      <c r="I78" s="8"/>
+      <c r="M78" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" t="s">
+        <v>264</v>
+      </c>
+      <c r="B79" t="s">
+        <v>274</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="D79" t="s">
+        <v>27</v>
+      </c>
+      <c r="E79" s="9"/>
+      <c r="F79" s="10"/>
+      <c r="I79" s="8"/>
+      <c r="M79" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" t="s">
+        <v>364</v>
+      </c>
+      <c r="B80" t="s">
+        <v>365</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="E80" s="9"/>
+      <c r="F80" s="10"/>
+      <c r="I80" s="8"/>
+      <c r="M80" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" t="s">
+        <v>367</v>
+      </c>
+      <c r="B81" t="s">
+        <v>260</v>
+      </c>
+      <c r="C81" s="5"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="10"/>
+      <c r="I81" s="8"/>
+      <c r="M81" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="C82" s="5"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="10"/>
+      <c r="I82" s="8"/>
+      <c r="M82" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="60.75">
+      <c r="A83" t="s">
+        <v>368</v>
+      </c>
+      <c r="B83" t="s">
+        <v>369</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="D83" t="s">
+        <v>27</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="F83" s="10">
+        <v>31202</v>
+      </c>
+      <c r="G83" t="s">
+        <v>164</v>
+      </c>
+      <c r="H83" t="s">
+        <v>19</v>
+      </c>
+      <c r="I83" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J83" t="s">
+        <v>372</v>
+      </c>
+      <c r="K83" t="s">
+        <v>43</v>
+      </c>
+      <c r="L83" t="s">
+        <v>142</v>
+      </c>
+      <c r="M83" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="60.75">
+      <c r="A84" t="s">
+        <v>373</v>
+      </c>
+      <c r="B84" t="s">
+        <v>374</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="D84" t="s">
+        <v>16</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="F84" s="10">
+        <v>32694</v>
+      </c>
+      <c r="G84" t="s">
+        <v>169</v>
+      </c>
+      <c r="H84" t="s">
+        <v>41</v>
+      </c>
+      <c r="I84" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J84" t="s">
+        <v>377</v>
+      </c>
+      <c r="K84" t="s">
+        <v>51</v>
+      </c>
+      <c r="L84" t="s">
+        <v>65</v>
+      </c>
+      <c r="M84" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="60.75">
+      <c r="A85" t="s">
+        <v>378</v>
+      </c>
+      <c r="B85" t="s">
+        <v>379</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="D85" t="s">
+        <v>27</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="F85" s="10">
+        <v>34552</v>
+      </c>
+      <c r="G85" t="s">
+        <v>48</v>
+      </c>
+      <c r="H85" t="s">
+        <v>119</v>
+      </c>
+      <c r="I85" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J85" t="s">
+        <v>382</v>
+      </c>
+      <c r="K85" t="s">
+        <v>51</v>
+      </c>
+      <c r="L85" t="s">
+        <v>52</v>
+      </c>
+      <c r="M85" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="60.75">
+      <c r="A86" t="s">
+        <v>383</v>
+      </c>
+      <c r="B86" t="s">
+        <v>384</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="D86" t="s">
+        <v>16</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="F86" s="10">
+        <v>33854</v>
+      </c>
+      <c r="G86" t="s">
+        <v>179</v>
+      </c>
+      <c r="H86" t="s">
+        <v>19</v>
+      </c>
+      <c r="I86" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J86" t="s">
+        <v>387</v>
+      </c>
+      <c r="K86" t="s">
+        <v>108</v>
+      </c>
+      <c r="L86" t="s">
+        <v>159</v>
+      </c>
+      <c r="M86" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="60.75">
+      <c r="A87" t="s">
+        <v>388</v>
+      </c>
+      <c r="B87" t="s">
+        <v>389</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="D87" t="s">
+        <v>27</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="F87" s="10">
+        <v>31693</v>
+      </c>
+      <c r="G87" t="s">
+        <v>185</v>
+      </c>
+      <c r="H87" t="s">
+        <v>41</v>
+      </c>
+      <c r="I87" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J87" t="s">
+        <v>392</v>
+      </c>
+      <c r="K87" t="s">
+        <v>108</v>
+      </c>
+      <c r="L87" t="s">
+        <v>109</v>
+      </c>
+      <c r="M87" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="60.75">
+      <c r="A88" t="s">
+        <v>393</v>
+      </c>
+      <c r="B88" t="s">
+        <v>394</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="D88" t="s">
+        <v>16</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="F88" s="10">
+        <v>35012</v>
+      </c>
+      <c r="G88" t="s">
+        <v>113</v>
+      </c>
+      <c r="H88" t="s">
+        <v>119</v>
+      </c>
+      <c r="I88" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J88" t="s">
+        <v>397</v>
+      </c>
+      <c r="K88" t="s">
+        <v>22</v>
+      </c>
+      <c r="L88" t="s">
+        <v>23</v>
+      </c>
+      <c r="M88" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="60.75">
+      <c r="A89" t="s">
+        <v>398</v>
+      </c>
+      <c r="B89" t="s">
+        <v>399</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="D89" t="s">
+        <v>27</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="F89" s="10">
+        <v>30660</v>
+      </c>
+      <c r="G89" t="s">
+        <v>106</v>
+      </c>
+      <c r="H89" t="s">
+        <v>19</v>
+      </c>
+      <c r="I89" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J89" t="s">
+        <v>402</v>
+      </c>
+      <c r="K89" t="s">
+        <v>22</v>
+      </c>
+      <c r="L89" t="s">
+        <v>121</v>
+      </c>
+      <c r="M89" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="60.75">
+      <c r="A90" t="s">
+        <v>403</v>
+      </c>
+      <c r="B90" t="s">
+        <v>404</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="D90" t="s">
+        <v>16</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="F90" s="10">
+        <v>30692</v>
+      </c>
+      <c r="G90" t="s">
+        <v>125</v>
+      </c>
+      <c r="H90" t="s">
+        <v>41</v>
+      </c>
+      <c r="I90" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J90" t="s">
+        <v>407</v>
+      </c>
+      <c r="K90" t="s">
+        <v>22</v>
+      </c>
+      <c r="L90" t="s">
+        <v>100</v>
+      </c>
+      <c r="M90" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="60.75">
+      <c r="A91" t="s">
+        <v>408</v>
+      </c>
+      <c r="B91" t="s">
+        <v>409</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="D91" t="s">
+        <v>27</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="F91" s="10">
+        <v>31820</v>
+      </c>
+      <c r="G91" t="s">
+        <v>131</v>
+      </c>
+      <c r="H91" t="s">
+        <v>119</v>
+      </c>
+      <c r="I91" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J91" t="s">
+        <v>412</v>
+      </c>
+      <c r="K91" t="s">
+        <v>43</v>
+      </c>
+      <c r="L91" t="s">
+        <v>44</v>
+      </c>
+      <c r="M91" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="60.75">
+      <c r="A92">
+        <v>123</v>
+      </c>
+      <c r="B92" t="s">
+        <v>255</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="D92" t="s">
+        <v>16</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="F92" s="10">
+        <v>33310</v>
+      </c>
+      <c r="G92" t="s">
+        <v>74</v>
+      </c>
+      <c r="H92" t="s">
+        <v>19</v>
+      </c>
+      <c r="I92" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J92" t="s">
+        <v>415</v>
+      </c>
+      <c r="K92" t="s">
+        <v>43</v>
+      </c>
+      <c r="L92" t="s">
+        <v>59</v>
+      </c>
+      <c r="M92" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="60.75">
+      <c r="A93" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="B93" t="s">
+        <v>237</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="D93" t="s">
+        <v>27</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="F93" s="10">
+        <v>32977</v>
+      </c>
+      <c r="G93" t="s">
+        <v>84</v>
+      </c>
+      <c r="H93" t="s">
+        <v>41</v>
+      </c>
+      <c r="I93" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J93" t="s">
+        <v>419</v>
+      </c>
+      <c r="K93" t="s">
+        <v>43</v>
+      </c>
+      <c r="L93" t="s">
+        <v>142</v>
+      </c>
+      <c r="M93" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="60.75">
+      <c r="A94" t="s">
+        <v>420</v>
+      </c>
+      <c r="B94" t="s">
+        <v>421</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="D94" t="s">
+        <v>16</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="F94" s="10">
+        <v>32278</v>
+      </c>
+      <c r="G94" t="s">
+        <v>147</v>
+      </c>
+      <c r="H94" t="s">
+        <v>119</v>
+      </c>
+      <c r="I94" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J94" t="s">
+        <v>424</v>
+      </c>
+      <c r="K94" t="s">
+        <v>51</v>
+      </c>
+      <c r="L94" t="s">
+        <v>65</v>
+      </c>
+      <c r="M94" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="60.75">
+      <c r="A95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="D95" t="s">
+        <v>27</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="F95" s="10">
+        <v>34866</v>
+      </c>
+      <c r="G95" t="s">
+        <v>40</v>
+      </c>
+      <c r="H95" t="s">
+        <v>19</v>
+      </c>
+      <c r="I95" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J95" t="s">
+        <v>427</v>
+      </c>
+      <c r="K95" t="s">
+        <v>51</v>
+      </c>
+      <c r="L95" t="s">
+        <v>52</v>
+      </c>
+      <c r="M95" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="60.75">
+      <c r="A96" t="s">
+        <v>428</v>
+      </c>
+      <c r="B96" t="s">
+        <v>429</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="D96" t="s">
+        <v>16</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="F96" s="10">
+        <v>34167</v>
+      </c>
+      <c r="G96" t="s">
+        <v>157</v>
+      </c>
+      <c r="H96" t="s">
+        <v>41</v>
+      </c>
+      <c r="I96" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J96" t="s">
+        <v>432</v>
+      </c>
+      <c r="K96" t="s">
+        <v>108</v>
+      </c>
+      <c r="L96" t="s">
+        <v>159</v>
+      </c>
+      <c r="M96" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1323,7 +5309,75 @@
     <hyperlink ref="C4" r:id="rId10" xr:uid="{1E94850C-D6E9-40B7-8CD7-3153AD82E9D5}"/>
     <hyperlink ref="C6" r:id="rId11" xr:uid="{DC34BD80-F173-4B5D-A52F-0FC2D76FD5A9}"/>
     <hyperlink ref="C13" r:id="rId12" xr:uid="{47C6B3B1-997A-4987-A1A9-928069E1BD42}"/>
-    <hyperlink ref="C14" r:id="rId13" xr:uid="{B45FD28E-462B-4073-A012-259ABF7BD402}"/>
+    <hyperlink ref="C16" r:id="rId13" xr:uid="{35C434C0-245A-4040-BDAC-3688A694B0B8}"/>
+    <hyperlink ref="C18" r:id="rId14" xr:uid="{694623F6-8C8D-4D5C-87C1-305C0A64DF47}"/>
+    <hyperlink ref="C19" r:id="rId15" xr:uid="{BA555737-031A-4541-99A5-EC26BF692F9B}"/>
+    <hyperlink ref="C20" r:id="rId16" xr:uid="{AD1F071F-C137-49B5-B700-4BBD6D4E5D0B}"/>
+    <hyperlink ref="C21" r:id="rId17" xr:uid="{6C7FFDB1-1515-4B4A-BABF-C3813DEDC365}"/>
+    <hyperlink ref="C22" r:id="rId18" xr:uid="{1235EE38-5831-45CE-8463-2B1C22463DAC}"/>
+    <hyperlink ref="C23" r:id="rId19" xr:uid="{D2323394-D0AE-4A75-A26B-E82CE7914BC3}"/>
+    <hyperlink ref="C24" r:id="rId20" xr:uid="{3AE5F38D-BF84-48E8-816C-F133A7FEF4A6}"/>
+    <hyperlink ref="C25" r:id="rId21" xr:uid="{08113441-2360-496C-AAB2-A9F52C07F852}"/>
+    <hyperlink ref="C26" r:id="rId22" xr:uid="{C5419AEE-832F-46C1-9345-6C9F075C197D}"/>
+    <hyperlink ref="C27" r:id="rId23" xr:uid="{65023DF3-720B-4FC6-A0E6-316C6EC58B71}"/>
+    <hyperlink ref="C28" r:id="rId24" xr:uid="{2E0185AE-CC86-40B9-B9DE-15EE7E47ECA6}"/>
+    <hyperlink ref="C29" r:id="rId25" xr:uid="{2F356213-A9AE-4A92-B45D-90EFA813ABFD}"/>
+    <hyperlink ref="C30" r:id="rId26" xr:uid="{9BE9A749-11C2-4FF9-824F-60408EEB04A7}"/>
+    <hyperlink ref="C31" r:id="rId27" xr:uid="{98E4BF66-02EE-4580-9D34-7D5D635BDA6F}"/>
+    <hyperlink ref="C32" r:id="rId28" xr:uid="{4C2FF2A0-F95B-49F3-A605-AF574B7C2178}"/>
+    <hyperlink ref="C45" r:id="rId29" xr:uid="{B628291F-85E5-43FE-8C50-F869FE588996}"/>
+    <hyperlink ref="C46" r:id="rId30" xr:uid="{DC341DC9-BCC3-48E0-8447-29AB4F1FB732}"/>
+    <hyperlink ref="C47" r:id="rId31" xr:uid="{FCBA55EE-46A2-40F7-9916-FD3F801CA1DA}"/>
+    <hyperlink ref="C48" r:id="rId32" xr:uid="{99B5E070-66F3-4303-A8D2-074D9387AA62}"/>
+    <hyperlink ref="C49" r:id="rId33" xr:uid="{4631C04A-D548-411E-BD3C-E4D0B93CBC6B}"/>
+    <hyperlink ref="C50" r:id="rId34" xr:uid="{DF8792EA-B28A-44FC-AE9F-7AA588716301}"/>
+    <hyperlink ref="C51" r:id="rId35" xr:uid="{420501FA-A780-473F-ACCB-DD48FCED5F35}"/>
+    <hyperlink ref="C52" r:id="rId36" xr:uid="{EAF7F3EC-0ADE-4CF3-B5B5-FC3196D06C62}"/>
+    <hyperlink ref="C53" r:id="rId37" xr:uid="{DBE20476-02F0-4240-A88E-3F7E0158DBA6}"/>
+    <hyperlink ref="C54" r:id="rId38" xr:uid="{504FE549-A820-4F06-8F9F-02FC9D5768C2}"/>
+    <hyperlink ref="C14" r:id="rId39" xr:uid="{B45FD28E-462B-4073-A012-259ABF7BD402}"/>
+    <hyperlink ref="C55" r:id="rId40" xr:uid="{4B5423CB-17D2-4A5F-8F1C-A4C68FE782DF}"/>
+    <hyperlink ref="C56" r:id="rId41" xr:uid="{3EC6A8AD-BCA7-479D-A993-4EA42FD96B0A}"/>
+    <hyperlink ref="C57" r:id="rId42" xr:uid="{1B29C846-7F32-437C-9362-929FB051D048}"/>
+    <hyperlink ref="C58" r:id="rId43" xr:uid="{5AA0FEED-3183-4F98-BC36-59A4CED689FD}"/>
+    <hyperlink ref="C59" r:id="rId44" xr:uid="{E2BD3FAC-B48C-4FF8-A78D-6E98F15382BB}"/>
+    <hyperlink ref="C60" r:id="rId45" xr:uid="{5193CE77-A14B-4745-BAA1-A3585C5567A0}"/>
+    <hyperlink ref="C61" r:id="rId46" xr:uid="{BD3C8F5C-0A88-4BE6-B797-8A2671E994BE}"/>
+    <hyperlink ref="C41" r:id="rId47" xr:uid="{084DFA6C-51AE-4F98-A717-25BDD7D87738}"/>
+    <hyperlink ref="C33" r:id="rId48" xr:uid="{72BD3341-8F8D-48D4-A09C-445B17684D3E}"/>
+    <hyperlink ref="C34" r:id="rId49" xr:uid="{B71CC00A-E647-4240-8007-BA296B0F6A0D}"/>
+    <hyperlink ref="C35" r:id="rId50" xr:uid="{EEFED143-94BF-40D8-954A-7BF6FF311AC4}"/>
+    <hyperlink ref="C36" r:id="rId51" xr:uid="{8C66D213-8DCC-4ED5-ABBC-BD5B77305B47}"/>
+    <hyperlink ref="C37" r:id="rId52" xr:uid="{2E696BEE-7BB6-4BF9-8159-468AB14EF664}"/>
+    <hyperlink ref="C38" r:id="rId53" xr:uid="{0A8EB46E-2B1A-432C-A0B8-0E1889EADA9E}"/>
+    <hyperlink ref="C39" r:id="rId54" xr:uid="{E2967C2C-9881-4FCF-B7C1-B3C0FA2D6B6B}"/>
+    <hyperlink ref="C40" r:id="rId55" xr:uid="{CA920857-EC00-4BED-A763-99CC1610E393}"/>
+    <hyperlink ref="C42" r:id="rId56" xr:uid="{2B835FC7-59D8-4E34-BB99-C301B0C5A7ED}"/>
+    <hyperlink ref="C43" r:id="rId57" xr:uid="{041FA22A-2E6F-4AE2-A584-B199A17D4FC0}"/>
+    <hyperlink ref="C44" r:id="rId58" xr:uid="{B13BDA2B-A00E-47D3-A9D7-C946CD6D6814}"/>
+    <hyperlink ref="C62" r:id="rId59" xr:uid="{7EBD3264-4F3A-4BE5-AD2C-0C9B19AB5539}"/>
+    <hyperlink ref="C80" r:id="rId60" xr:uid="{BF0E6B70-8520-4D34-B027-186C2E299131}"/>
+    <hyperlink ref="C79" r:id="rId61" xr:uid="{F57D3E89-5EB4-4DFC-A370-B75DF70F8EA4}"/>
+    <hyperlink ref="C78" r:id="rId62" xr:uid="{38FF3514-145A-41BF-A0D6-576BACB87052}"/>
+    <hyperlink ref="C77" r:id="rId63" xr:uid="{8B378333-163A-49E3-B2C3-0B0507DCC8B6}"/>
+    <hyperlink ref="C76" r:id="rId64" xr:uid="{5EC8E0EE-FA59-4CD9-A2E9-B5F82FA94CBE}"/>
+    <hyperlink ref="C75" r:id="rId65" xr:uid="{12F5FB7A-9D4C-486E-AD62-49ED2EE8C67A}"/>
+    <hyperlink ref="C74" r:id="rId66" xr:uid="{97F66C68-5D12-485B-972B-B15910575706}"/>
+    <hyperlink ref="C73" r:id="rId67" xr:uid="{DC1567AE-66FE-40FE-AEF0-16231661B8AD}"/>
+    <hyperlink ref="C96" r:id="rId68" xr:uid="{07F2153E-866E-401A-9AE9-A7898194C357}"/>
+    <hyperlink ref="C95" r:id="rId69" xr:uid="{3A2AF38E-7E95-4931-A39E-CF6839774386}"/>
+    <hyperlink ref="C94" r:id="rId70" xr:uid="{5F324204-E881-4EC6-BF95-D8858C105BF0}"/>
+    <hyperlink ref="C93" r:id="rId71" xr:uid="{171EE46A-ABC4-441D-A31C-770AE116320E}"/>
+    <hyperlink ref="C92" r:id="rId72" xr:uid="{0B3FF573-B080-4D00-BC31-8C712902E67E}"/>
+    <hyperlink ref="C91" r:id="rId73" xr:uid="{106DE4C4-F3F9-47EC-80A8-20435108D86C}"/>
+    <hyperlink ref="C90" r:id="rId74" xr:uid="{031D6654-84A8-40DE-8EC0-C729FF812338}"/>
+    <hyperlink ref="C89" r:id="rId75" xr:uid="{E7E89B53-35AE-4937-8A56-5091E0E5798B}"/>
+    <hyperlink ref="C88" r:id="rId76" xr:uid="{9C3D4162-AF94-41E3-AB3E-C331179B8E29}"/>
+    <hyperlink ref="C87" r:id="rId77" xr:uid="{77D94EF2-E0DC-4CE7-9643-CBA888C30B56}"/>
+    <hyperlink ref="C86" r:id="rId78" xr:uid="{FC7D4667-A07E-4F30-AD91-683D9D660EAA}"/>
+    <hyperlink ref="C85" r:id="rId79" xr:uid="{97B98518-E2B6-4636-A67F-29198791FD2A}"/>
+    <hyperlink ref="C84" r:id="rId80" xr:uid="{8441EB78-7E36-4F3D-A3F8-73968F53504C}"/>
+    <hyperlink ref="C83" r:id="rId81" xr:uid="{2308D307-7E96-46C3-B83E-A7C7EAB991B3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
